--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 900-POS-POS10.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 900-POS-POS10.xlsx
@@ -19,7 +19,235 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="106">
+  <si>
+    <t>Signal_Value_3</t>
+  </si>
+  <si>
+    <t>Signal_Value_4</t>
+  </si>
+  <si>
+    <t>Signal_Value_5</t>
+  </si>
+  <si>
+    <t>Signal_Value_6</t>
+  </si>
+  <si>
+    <t>Signal_Value_7</t>
+  </si>
+  <si>
+    <t>Signal_Value_8</t>
+  </si>
+  <si>
+    <t>Signal_Value_9</t>
+  </si>
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
+  <si>
+    <t>Signal_Value_78</t>
+  </si>
   <si>
     <t>Signal_Value_79</t>
   </si>
@@ -33,99 +261,6 @@
     <t>Signal_Value_82</t>
   </si>
   <si>
-    <t>Signal_Value_83</t>
-  </si>
-  <si>
-    <t>Signal_Value_84</t>
-  </si>
-  <si>
-    <t>Signal_Value_85</t>
-  </si>
-  <si>
-    <t>Signal_Value_86</t>
-  </si>
-  <si>
-    <t>Signal_Value_87</t>
-  </si>
-  <si>
-    <t>Signal_Value_88</t>
-  </si>
-  <si>
-    <t>Signal_Value_89</t>
-  </si>
-  <si>
-    <t>Signal_Value_90</t>
-  </si>
-  <si>
-    <t>Signal_Value_91</t>
-  </si>
-  <si>
-    <t>Signal_Value_92</t>
-  </si>
-  <si>
-    <t>Signal_Value_93</t>
-  </si>
-  <si>
-    <t>Signal_Value_94</t>
-  </si>
-  <si>
-    <t>Signal_Value_95</t>
-  </si>
-  <si>
-    <t>Signal_Value_96</t>
-  </si>
-  <si>
-    <t>Signal_Value_97</t>
-  </si>
-  <si>
-    <t>Signal_Value_98</t>
-  </si>
-  <si>
-    <t>Signal_Value_99</t>
-  </si>
-  <si>
-    <t>Signal_Value_100</t>
-  </si>
-  <si>
-    <t>Signal_Value_101</t>
-  </si>
-  <si>
-    <t>Signal_Value_102</t>
-  </si>
-  <si>
-    <t>Signal_Value_103</t>
-  </si>
-  <si>
-    <t>Signal_Value_104</t>
-  </si>
-  <si>
-    <t>Signal_Value_105</t>
-  </si>
-  <si>
-    <t>Signal_Value_106</t>
-  </si>
-  <si>
-    <t>Signal_Value_107</t>
-  </si>
-  <si>
-    <t>Signal_Value_108</t>
-  </si>
-  <si>
-    <t>Signal_Value_109</t>
-  </si>
-  <si>
-    <t>Signal_Value_110</t>
-  </si>
-  <si>
-    <t>Signal_Value_111</t>
-  </si>
-  <si>
-    <t>Signal_Value_112</t>
-  </si>
-  <si>
-    <t>Signal_Value_113</t>
-  </si>
-  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -198,10 +333,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -562,15 +694,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:CC6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:81">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -677,10 +809,145 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:81">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -689,108 +956,243 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.004733888334333966</v>
+        <v>0.1717436804407188</v>
       </c>
       <c r="E2">
-        <v>0.009927765221640931</v>
+        <v>0.01553750521795874</v>
       </c>
       <c r="F2">
-        <v>1.795834507174887E-05</v>
+        <v>0.1888964898581715</v>
       </c>
       <c r="G2">
-        <v>0.008322169369648861</v>
+        <v>0.06398631243990151</v>
       </c>
       <c r="H2">
-        <v>0.002039957348958696</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.008926024639227832</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>9.870446351244438E-06</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.001950695131955199</v>
+        <v>0.06701322212050095</v>
       </c>
       <c r="L2">
-        <v>0.01364753252114243</v>
+        <v>0.2066586441545586</v>
       </c>
       <c r="M2">
-        <v>0.004683761370680591</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.05532283408982425</v>
+        <v>0.009293184141344911</v>
       </c>
       <c r="O2">
-        <v>0.03001495684766025</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.724878201474839E-05</v>
+        <v>0.0569298762305117</v>
       </c>
       <c r="Q2">
-        <v>0.01728562143632592</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.02063357174400815</v>
+        <v>0.08994927391896941</v>
       </c>
       <c r="S2">
-        <v>0.04066796540428637</v>
+        <v>0.02572554669121887</v>
       </c>
       <c r="T2">
-        <v>0.04671776845270918</v>
+        <v>0.01612066099346633</v>
       </c>
       <c r="U2">
-        <v>0.01759417702611599</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0004036850056097678</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.02073451682327677</v>
+        <v>0.004583789768238793</v>
       </c>
       <c r="X2">
-        <v>0.09908934524029772</v>
+        <v>0.03300068432543462</v>
       </c>
       <c r="Y2">
-        <v>0.1348910306016705</v>
+        <v>0.02665315480962591</v>
       </c>
       <c r="Z2">
-        <v>0.091842375546786</v>
+        <v>0.006226119969892479</v>
       </c>
       <c r="AA2">
-        <v>0.02418228383890998</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.001826613534712692</v>
+        <v>0.0127390042191033</v>
       </c>
       <c r="AC2">
-        <v>0.01153540666365302</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.07476335120774123</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.08574594034597866</v>
+        <v>0.002714695867890079</v>
       </c>
       <c r="AF2">
-        <v>0.07987837220893222</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.06056531002790125</v>
+        <v>0.002228154832493355</v>
       </c>
       <c r="AH2">
-        <v>0.02843069211953385</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.003597310323040115</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:81">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -802,105 +1204,240 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.005451903962403396</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.264638630167029E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.01447938939645938</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.008681780077481318</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.004033843545116928</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0006885961183509435</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.004774525441422563</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.001691928542829359</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.09162130989275497</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0803836482895626</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.095552280111473E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.05737876391498254</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.1067811074626597</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.07521249285753556</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.02813722299488351</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.02094531902245223</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.04125329134080936</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.08874670552208234</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.1088855548172055</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.04744944674069498</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.001913872747213406</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.01015791452876431</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.03144492267317952</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.05885932072219405</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.04760800053332674</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.02327864078390311</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0222470050186205</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.01356443355599681</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0005099061561529875</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.00375555143185854</v>
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0.09922389837504832</v>
+      </c>
+      <c r="AY3">
+        <v>0.003176794039355634</v>
+      </c>
+      <c r="AZ3">
+        <v>0.1388483454817144</v>
+      </c>
+      <c r="BA3">
+        <v>0.05273070281955532</v>
+      </c>
+      <c r="BB3">
+        <v>0.01723948801196248</v>
+      </c>
+      <c r="BC3">
+        <v>0.004750454382834304</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0.03329355030118845</v>
+      </c>
+      <c r="BF3">
+        <v>0.2164222618737967</v>
+      </c>
+      <c r="BG3">
+        <v>0.00888974329254949</v>
+      </c>
+      <c r="BH3">
+        <v>0.01506475301375663</v>
+      </c>
+      <c r="BI3">
+        <v>0.009253500374603684</v>
+      </c>
+      <c r="BJ3">
+        <v>0.03964149647252283</v>
+      </c>
+      <c r="BK3">
+        <v>0.003663391163213386</v>
+      </c>
+      <c r="BL3">
+        <v>0.03271409453116397</v>
+      </c>
+      <c r="BM3">
+        <v>0.02800305881694945</v>
+      </c>
+      <c r="BN3">
+        <v>0.06914749854221983</v>
+      </c>
+      <c r="BO3">
+        <v>0.004524830525946097</v>
+      </c>
+      <c r="BP3">
+        <v>0.00720708189689663</v>
+      </c>
+      <c r="BQ3">
+        <v>0.00100057117658061</v>
+      </c>
+      <c r="BR3">
+        <v>0.03233369688032225</v>
+      </c>
+      <c r="BS3">
+        <v>0.09692053719504767</v>
+      </c>
+      <c r="BT3">
+        <v>0.02011420077812391</v>
+      </c>
+      <c r="BU3">
+        <v>0.001548675258335</v>
+      </c>
+      <c r="BV3">
+        <v>0.04533357615511253</v>
+      </c>
+      <c r="BW3">
+        <v>0.006473401277943316</v>
+      </c>
+      <c r="BX3">
+        <v>0.003929222966238521</v>
+      </c>
+      <c r="BY3">
+        <v>2.078304759497923E-05</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0.001564116206989649</v>
+      </c>
+      <c r="CB3">
+        <v>0.006014599429289743</v>
+      </c>
+      <c r="CC3">
+        <v>0.0009516757131440121</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:81">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -909,108 +1446,243 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.001799204289957505</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.003703722279291771</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0004179628328040659</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.01264099413185613</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0003986904108122051</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.006740654739999391</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.003904861698750167</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001232007009105446</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.003797023988184545</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>5.827154073289653E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.05182414106705171</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.09788773390720616</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.01106669473766063</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0294279256195245</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0955780857488788</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.08792641936512552</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.05581883798475618</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.006120570684467091</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.01277780399316753</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.04253839647263676</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.07560228994877487</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.106231364059129</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.07300826099590424</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.01179678980960762</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.003366925506964775</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.02194353077723251</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.048603657256284</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.05511282700592725</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.03151672844042461</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.02491755860736747</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.01824092557567223</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.003999139514742307</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
       </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0.0326165163776341</v>
+      </c>
+      <c r="AT4">
+        <v>0.0691606313572989</v>
+      </c>
+      <c r="AU4">
+        <v>0.04757906914265441</v>
+      </c>
+      <c r="AV4">
+        <v>0.1656029006775366</v>
+      </c>
+      <c r="AW4">
+        <v>0.01729517731836743</v>
+      </c>
+      <c r="AX4">
+        <v>0.003440733551234733</v>
+      </c>
+      <c r="AY4">
+        <v>0.0001902570563858404</v>
+      </c>
+      <c r="AZ4">
+        <v>0.01185463480295969</v>
+      </c>
+      <c r="BA4">
+        <v>0.175528800829589</v>
+      </c>
+      <c r="BB4">
+        <v>0.0657911770182437</v>
+      </c>
+      <c r="BC4">
+        <v>0.03256216405347284</v>
+      </c>
+      <c r="BD4">
+        <v>0.0153693021881592</v>
+      </c>
+      <c r="BE4">
+        <v>0.009383153418683272</v>
+      </c>
+      <c r="BF4">
+        <v>0.00836710694836121</v>
+      </c>
+      <c r="BG4">
+        <v>0.04200782843857637</v>
+      </c>
+      <c r="BH4">
+        <v>0.04419881584341513</v>
+      </c>
+      <c r="BI4">
+        <v>0.03192640567676285</v>
+      </c>
+      <c r="BJ4">
+        <v>0.002975451926463089</v>
+      </c>
+      <c r="BK4">
+        <v>0.0008929265230260183</v>
+      </c>
+      <c r="BL4">
+        <v>0.0007635227443186281</v>
+      </c>
+      <c r="BM4">
+        <v>0.05666403067449927</v>
+      </c>
+      <c r="BN4">
+        <v>0.05102195054992464</v>
+      </c>
+      <c r="BO4">
+        <v>0.01730962594612635</v>
+      </c>
+      <c r="BP4">
+        <v>0.00104798347341847</v>
+      </c>
+      <c r="BQ4">
+        <v>0.03094239035830078</v>
+      </c>
+      <c r="BR4">
+        <v>0.0217817171261216</v>
+      </c>
+      <c r="BS4">
+        <v>0.01502665718908081</v>
+      </c>
+      <c r="BT4">
+        <v>1.843709256221429E-06</v>
+      </c>
+      <c r="BU4">
+        <v>0.002161999224127538</v>
+      </c>
+      <c r="BV4">
+        <v>0.01071537234346312</v>
+      </c>
+      <c r="BW4">
+        <v>0.01544067496299866</v>
+      </c>
+      <c r="BX4">
+        <v>0.0003791785495393398</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:81">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1019,108 +1691,243 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.002264554585181141</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.004515282927398765</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.001240529578322981</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.01916489534117184</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0007917070284443425</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01371827606089923</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.008948624476034674</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>6.552280955059415E-07</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0003142930433089996</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0006432784026871668</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.04260144492650937</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.09770956483712541</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.01475155012543674</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.03260209926840207</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.1046993704629844</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.07584531644342433</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.04472535245081734</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.008773740845315042</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.008925046262614396</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.04368455462530809</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.07459603944891252</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.1038726478450371</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.07833151399911108</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.01512342678868929</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.003660220710781363</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.02447061118240131</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.04486331084090529</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0511213601677226</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.02975659831444238</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.02396337365332838</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.01971196751627391</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.00460879261291298</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0.08042091550800813</v>
+      </c>
+      <c r="AU5">
+        <v>0.02217185354504772</v>
+      </c>
+      <c r="AV5">
+        <v>0.2005523644839985</v>
+      </c>
+      <c r="AW5">
+        <v>0.05509945559761243</v>
+      </c>
+      <c r="AX5">
+        <v>0.003507411583513141</v>
+      </c>
+      <c r="AY5">
+        <v>0.008279447514815717</v>
+      </c>
+      <c r="AZ5">
+        <v>0.002938751834225462</v>
+      </c>
+      <c r="BA5">
+        <v>0.1039266891101677</v>
+      </c>
+      <c r="BB5">
+        <v>0.1048073437830898</v>
+      </c>
+      <c r="BC5">
+        <v>0.002094243400742417</v>
+      </c>
+      <c r="BD5">
+        <v>0.01393420418320787</v>
+      </c>
+      <c r="BE5">
+        <v>0.006274352362333224</v>
+      </c>
+      <c r="BF5">
+        <v>0.03082346795108929</v>
+      </c>
+      <c r="BG5">
+        <v>0.007530783330520733</v>
+      </c>
+      <c r="BH5">
+        <v>0.08724200179624826</v>
+      </c>
+      <c r="BI5">
+        <v>0.04763862624067394</v>
+      </c>
+      <c r="BJ5">
+        <v>0.007123455317715891</v>
+      </c>
+      <c r="BK5">
+        <v>0.003919560018158235</v>
+      </c>
+      <c r="BL5">
+        <v>0.002951924694792721</v>
+      </c>
+      <c r="BM5">
+        <v>0.02207632574516083</v>
+      </c>
+      <c r="BN5">
+        <v>0.0555428012460913</v>
+      </c>
+      <c r="BO5">
+        <v>0.04656375206679232</v>
+      </c>
+      <c r="BP5">
+        <v>0.00661041358970278</v>
+      </c>
+      <c r="BQ5">
+        <v>0.01354173780613556</v>
+      </c>
+      <c r="BR5">
+        <v>0.02547696320351647</v>
+      </c>
+      <c r="BS5">
+        <v>0.008704914991021877</v>
+      </c>
+      <c r="BT5">
+        <v>0.0004012202868072411</v>
+      </c>
+      <c r="BU5">
+        <v>0.004084427618396086</v>
+      </c>
+      <c r="BV5">
+        <v>0.003789658083082316</v>
+      </c>
+      <c r="BW5">
+        <v>0.01773828638881834</v>
+      </c>
+      <c r="BX5">
+        <v>0.00132749727852222</v>
+      </c>
+      <c r="BY5">
+        <v>0.002905149439991588</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:81">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1129,102 +1936,237 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.001975475558959495</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02664341158358604</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.004993539964209874</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.04528300662411253</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006052381327769095</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0442457423498515</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.006581085779593931</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0002018618275143545</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.004517170518880129</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.005605293269293044</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.1005297808341775</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.06495344327104896</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.002464671891902878</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.076326988763839</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.09384979118706981</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0561863820833898</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0152844264154669</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.001443023241301671</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.02731175679158762</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.03943091082010256</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.07935775860678701</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.09692802557033105</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.03700262309286845</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0145460929176084</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0275146567265222</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.04528650492830375</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.03175707310851325</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0149690401149305</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.01732522058436374</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.01111081884137767</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.000322041404737001</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0.03461986062949832</v>
+      </c>
+      <c r="AU6">
+        <v>0.02100707339988197</v>
+      </c>
+      <c r="AV6">
+        <v>0.2217616980609517</v>
+      </c>
+      <c r="AW6">
+        <v>0.05650551392558188</v>
+      </c>
+      <c r="AX6">
+        <v>0.003572138807164015</v>
+      </c>
+      <c r="AY6">
+        <v>0.001341680831651296</v>
+      </c>
+      <c r="AZ6">
+        <v>0.02018562959017759</v>
+      </c>
+      <c r="BA6">
+        <v>0.2766753202269754</v>
+      </c>
+      <c r="BB6">
+        <v>0.02415268767094349</v>
+      </c>
+      <c r="BC6">
+        <v>0.01906313017141512</v>
+      </c>
+      <c r="BD6">
+        <v>0.01376506931617566</v>
+      </c>
+      <c r="BE6">
+        <v>0.01298043521275833</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0.04297053464880461</v>
+      </c>
+      <c r="BH6">
+        <v>0.003688261865531613</v>
+      </c>
+      <c r="BI6">
+        <v>0.02864896644538585</v>
+      </c>
+      <c r="BJ6">
+        <v>0.0494587226810024</v>
+      </c>
+      <c r="BK6">
+        <v>0.002766403164123331</v>
+      </c>
+      <c r="BL6">
+        <v>0.006657702220549878</v>
+      </c>
+      <c r="BM6">
+        <v>0.01848289329685189</v>
+      </c>
+      <c r="BN6">
+        <v>0.0313562640079581</v>
+      </c>
+      <c r="BO6">
+        <v>0.02064255718533037</v>
+      </c>
+      <c r="BP6">
+        <v>0.03532602519147263</v>
+      </c>
+      <c r="BQ6">
+        <v>0.008079408792624426</v>
+      </c>
+      <c r="BR6">
+        <v>0.02094391735328028</v>
+      </c>
+      <c r="BS6">
+        <v>0.01579802700996342</v>
+      </c>
+      <c r="BT6">
+        <v>0.001179228719521876</v>
+      </c>
+      <c r="BU6">
+        <v>6.680001959871833E-05</v>
+      </c>
+      <c r="BV6">
+        <v>0.008079408792624426</v>
+      </c>
+      <c r="BW6">
+        <v>1.66282310911765E-05</v>
+      </c>
+      <c r="BX6">
+        <v>0.0002080125311105083</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
         <v>0</v>
       </c>
     </row>
@@ -1235,15 +2177,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:CC6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:81">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1350,10 +2292,145 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:81">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1362,97 +2439,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.004733888334333966</v>
+        <v>0.1717436804407188</v>
       </c>
       <c r="E2">
-        <v>0.0146616535559749</v>
+        <v>0.1872811856586775</v>
       </c>
       <c r="F2">
-        <v>0.01467961190104665</v>
+        <v>0.3761776755168491</v>
       </c>
       <c r="G2">
-        <v>0.02300178127069551</v>
+        <v>0.4401639879567505</v>
       </c>
       <c r="H2">
-        <v>0.0250417386196542</v>
+        <v>0.4401639879567505</v>
       </c>
       <c r="I2">
-        <v>0.03396776325888204</v>
+        <v>0.4401639879567505</v>
       </c>
       <c r="J2">
-        <v>0.03397763370523328</v>
+        <v>0.4401639879567505</v>
       </c>
       <c r="K2">
-        <v>0.03592832883718848</v>
+        <v>0.5071772100772515</v>
       </c>
       <c r="L2">
-        <v>0.04957586135833091</v>
+        <v>0.7138358542318101</v>
       </c>
       <c r="M2">
-        <v>0.0542596227290115</v>
+        <v>0.7138358542318101</v>
       </c>
       <c r="N2">
-        <v>0.1095824568188357</v>
+        <v>0.723129038373155</v>
       </c>
       <c r="O2">
-        <v>0.139597413666496</v>
+        <v>0.723129038373155</v>
       </c>
       <c r="P2">
-        <v>0.1396146624485108</v>
+        <v>0.7800589146036667</v>
       </c>
       <c r="Q2">
-        <v>0.1569002838848367</v>
+        <v>0.7800589146036667</v>
       </c>
       <c r="R2">
-        <v>0.1775338556288448</v>
+        <v>0.8700081885226362</v>
       </c>
       <c r="S2">
-        <v>0.2182018210331312</v>
+        <v>0.895733735213855</v>
       </c>
       <c r="T2">
-        <v>0.2649195894858404</v>
+        <v>0.9118543962073213</v>
       </c>
       <c r="U2">
-        <v>0.2825137665119564</v>
+        <v>0.9118543962073213</v>
       </c>
       <c r="V2">
-        <v>0.2829174515175661</v>
+        <v>0.9118543962073213</v>
       </c>
       <c r="W2">
-        <v>0.3036519683408429</v>
+        <v>0.9164381859755601</v>
       </c>
       <c r="X2">
-        <v>0.4027413135811406</v>
+        <v>0.9494388703009947</v>
       </c>
       <c r="Y2">
-        <v>0.5376323441828111</v>
+        <v>0.9760920251106207</v>
       </c>
       <c r="Z2">
-        <v>0.6294747197295971</v>
+        <v>0.9823181450805132</v>
       </c>
       <c r="AA2">
-        <v>0.6536570035685071</v>
+        <v>0.9823181450805132</v>
       </c>
       <c r="AB2">
-        <v>0.6554836171032198</v>
+        <v>0.9950571492996165</v>
       </c>
       <c r="AC2">
-        <v>0.6670190237668728</v>
+        <v>0.9950571492996165</v>
       </c>
       <c r="AD2">
-        <v>0.7417823749746141</v>
+        <v>0.9950571492996165</v>
       </c>
       <c r="AE2">
-        <v>0.8275283153205928</v>
+        <v>0.9977718451675066</v>
       </c>
       <c r="AF2">
-        <v>0.907406687529525</v>
+        <v>0.9977718451675066</v>
       </c>
       <c r="AG2">
-        <v>0.9679719975574262</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9964026896769601</v>
+        <v>1</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -1460,10 +2537,145 @@
       <c r="AJ2">
         <v>1</v>
       </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BV2">
+        <v>1</v>
+      </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
+      <c r="BX2">
+        <v>1</v>
+      </c>
+      <c r="BY2">
+        <v>1</v>
+      </c>
+      <c r="BZ2">
+        <v>1</v>
+      </c>
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:81">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1475,105 +2687,240 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.005451903962403396</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.005504550348705066</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.01998393974516445</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01998393974516445</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02866571982264577</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0326995633677627</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03338815948611364</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0381626849275362</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.03985461347036556</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.1314759233631205</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2118595716526831</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.2118705271754842</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.2692492910904668</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.3760303985531265</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.4512428914106621</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.4793801144055456</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.4793801144055456</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.5003254334279978</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.5415787247688072</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.6303254302908895</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.739210985108095</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.78666043184879</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.7885743045960034</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.7987322191247678</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.8301771417979473</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.8890364625201413</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.936644463053468</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.9599231038373711</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.9821701088559917</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.9957345424119884</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.9962444485681414</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0.09922389837504832</v>
+      </c>
+      <c r="AY3">
+        <v>0.102400692414404</v>
+      </c>
+      <c r="AZ3">
+        <v>0.2412490378961184</v>
+      </c>
+      <c r="BA3">
+        <v>0.2939797407156737</v>
+      </c>
+      <c r="BB3">
+        <v>0.3112192287276362</v>
+      </c>
+      <c r="BC3">
+        <v>0.3159696831104705</v>
+      </c>
+      <c r="BD3">
+        <v>0.3159696831104705</v>
+      </c>
+      <c r="BE3">
+        <v>0.3492632334116589</v>
+      </c>
+      <c r="BF3">
+        <v>0.5656854952854556</v>
+      </c>
+      <c r="BG3">
+        <v>0.5745752385780052</v>
+      </c>
+      <c r="BH3">
+        <v>0.5896399915917618</v>
+      </c>
+      <c r="BI3">
+        <v>0.5988934919663655</v>
+      </c>
+      <c r="BJ3">
+        <v>0.6385349884388883</v>
+      </c>
+      <c r="BK3">
+        <v>0.6421983796021017</v>
+      </c>
+      <c r="BL3">
+        <v>0.6749124741332657</v>
+      </c>
+      <c r="BM3">
+        <v>0.7029155329502151</v>
+      </c>
+      <c r="BN3">
+        <v>0.7720630314924349</v>
+      </c>
+      <c r="BO3">
+        <v>0.776587862018381</v>
+      </c>
+      <c r="BP3">
+        <v>0.7837949439152777</v>
+      </c>
+      <c r="BQ3">
+        <v>0.7847955150918583</v>
+      </c>
+      <c r="BR3">
+        <v>0.8171292119721806</v>
+      </c>
+      <c r="BS3">
+        <v>0.9140497491672283</v>
+      </c>
+      <c r="BT3">
+        <v>0.9341639499453521</v>
+      </c>
+      <c r="BU3">
+        <v>0.9357126252036871</v>
+      </c>
+      <c r="BV3">
+        <v>0.9810462013587997</v>
+      </c>
+      <c r="BW3">
+        <v>0.987519602636743</v>
+      </c>
+      <c r="BX3">
+        <v>0.9914488256029815</v>
+      </c>
+      <c r="BY3">
+        <v>0.9914696086505765</v>
+      </c>
+      <c r="BZ3">
+        <v>0.9914696086505765</v>
+      </c>
+      <c r="CA3">
+        <v>0.9930337248575661</v>
+      </c>
+      <c r="CB3">
+        <v>0.9990483242868559</v>
+      </c>
+      <c r="CC3">
+        <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:81">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1582,108 +2929,243 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.001799204289957505</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.005502926569249276</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.005920889402053342</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.01856188353390947</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01896057394472168</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.02570122868472107</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02960609038347124</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.03083809739257668</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.03463512138076123</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.03469339292149412</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.08651753398854584</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.184405267895752</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.1954719626334126</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.2248998882529371</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.3204779740018159</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4084043933669415</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.4642232313516976</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.4703438020361647</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.4831216060293322</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.525660002501969</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.6012622924507438</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.7074936565098728</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.780501917505777</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.7922987073153847</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.7956656328223495</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.817609163599582</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.866212820855866</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.9213256478617933</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.9528423763022179</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.9777599349095853</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.9960008604852576</v>
+        <v>0</v>
       </c>
       <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0.0326165163776341</v>
+      </c>
+      <c r="AT4">
+        <v>0.101777147734933</v>
+      </c>
+      <c r="AU4">
+        <v>0.1493562168775874</v>
+      </c>
+      <c r="AV4">
+        <v>0.314959117555124</v>
+      </c>
+      <c r="AW4">
+        <v>0.3322542948734914</v>
+      </c>
+      <c r="AX4">
+        <v>0.3356950284247261</v>
+      </c>
+      <c r="AY4">
+        <v>0.335885285481112</v>
+      </c>
+      <c r="AZ4">
+        <v>0.3477399202840717</v>
+      </c>
+      <c r="BA4">
+        <v>0.5232687211136607</v>
+      </c>
+      <c r="BB4">
+        <v>0.5890598981319044</v>
+      </c>
+      <c r="BC4">
+        <v>0.6216220621853772</v>
+      </c>
+      <c r="BD4">
+        <v>0.6369913643735364</v>
+      </c>
+      <c r="BE4">
+        <v>0.6463745177922197</v>
+      </c>
+      <c r="BF4">
+        <v>0.6547416247405808</v>
+      </c>
+      <c r="BG4">
+        <v>0.6967494531791572</v>
+      </c>
+      <c r="BH4">
+        <v>0.7409482690225723</v>
+      </c>
+      <c r="BI4">
+        <v>0.7728746746993351</v>
+      </c>
+      <c r="BJ4">
+        <v>0.7758501266257982</v>
+      </c>
+      <c r="BK4">
+        <v>0.7767430531488242</v>
+      </c>
+      <c r="BL4">
+        <v>0.7775065758931429</v>
+      </c>
+      <c r="BM4">
+        <v>0.8341706065676422</v>
+      </c>
+      <c r="BN4">
+        <v>0.8851925571175668</v>
+      </c>
+      <c r="BO4">
+        <v>0.9025021830636932</v>
+      </c>
+      <c r="BP4">
+        <v>0.9035501665371117</v>
+      </c>
+      <c r="BQ4">
+        <v>0.9344925568954126</v>
+      </c>
+      <c r="BR4">
+        <v>0.9562742740215342</v>
+      </c>
+      <c r="BS4">
+        <v>0.971300931210615</v>
+      </c>
+      <c r="BT4">
+        <v>0.9713027749198713</v>
+      </c>
+      <c r="BU4">
+        <v>0.9734647741439988</v>
+      </c>
+      <c r="BV4">
+        <v>0.9841801464874619</v>
+      </c>
+      <c r="BW4">
+        <v>0.9996208214504605</v>
+      </c>
+      <c r="BX4">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AJ4">
+      <c r="BY4">
         <v>0.9999999999999999</v>
       </c>
+      <c r="BZ4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CA4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CB4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CC4">
+        <v>0.9999999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:81">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1692,108 +3174,243 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.002264554585181141</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.006779837512579906</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.008020367090902888</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.02718526243207472</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.02797696946051907</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0416952455214183</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05064386999745297</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.05064452522554847</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05095881826885747</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.05160209667154464</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.09420354159805401</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1919131064351794</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.2066646565606162</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.2392667558290182</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.3439661262920026</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.419811442735427</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.4645367951862443</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.4733105360315594</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.4822355822941738</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.5259201369194819</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.6005161763683944</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.7043888242134314</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.7827203382125425</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.7978437650012318</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.8015039857120131</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.8259745968944144</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.8708379077353198</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.9219592679030424</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.9517158662174847</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.9756792398708131</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.995391207387087</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0.08042091550800813</v>
+      </c>
+      <c r="AU5">
+        <v>0.1025927690530559</v>
+      </c>
+      <c r="AV5">
+        <v>0.3031451335370544</v>
+      </c>
+      <c r="AW5">
+        <v>0.3582445891346668</v>
+      </c>
+      <c r="AX5">
+        <v>0.36175200071818</v>
+      </c>
+      <c r="AY5">
+        <v>0.3700314482329957</v>
+      </c>
+      <c r="AZ5">
+        <v>0.3729702000672212</v>
+      </c>
+      <c r="BA5">
+        <v>0.4768968891773889</v>
+      </c>
+      <c r="BB5">
+        <v>0.5817042329604787</v>
+      </c>
+      <c r="BC5">
+        <v>0.5837984763612211</v>
+      </c>
+      <c r="BD5">
+        <v>0.597732680544429</v>
+      </c>
+      <c r="BE5">
+        <v>0.6040070329067622</v>
+      </c>
+      <c r="BF5">
+        <v>0.6348305008578514</v>
+      </c>
+      <c r="BG5">
+        <v>0.6423612841883721</v>
+      </c>
+      <c r="BH5">
+        <v>0.7296032859846204</v>
+      </c>
+      <c r="BI5">
+        <v>0.7772419122252944</v>
+      </c>
+      <c r="BJ5">
+        <v>0.7843653675430102</v>
+      </c>
+      <c r="BK5">
+        <v>0.7882849275611684</v>
+      </c>
+      <c r="BL5">
+        <v>0.7912368522559612</v>
+      </c>
+      <c r="BM5">
+        <v>0.813313178001122</v>
+      </c>
+      <c r="BN5">
+        <v>0.8688559792472134</v>
+      </c>
+      <c r="BO5">
+        <v>0.9154197313140057</v>
+      </c>
+      <c r="BP5">
+        <v>0.9220301449037085</v>
+      </c>
+      <c r="BQ5">
+        <v>0.935571882709844</v>
+      </c>
+      <c r="BR5">
+        <v>0.9610488459133605</v>
+      </c>
+      <c r="BS5">
+        <v>0.9697537609043824</v>
+      </c>
+      <c r="BT5">
+        <v>0.9701549811911896</v>
+      </c>
+      <c r="BU5">
+        <v>0.9742394088095857</v>
+      </c>
+      <c r="BV5">
+        <v>0.978029066892668</v>
+      </c>
+      <c r="BW5">
+        <v>0.9957673532814864</v>
+      </c>
+      <c r="BX5">
+        <v>0.9970948505600086</v>
+      </c>
+      <c r="BY5">
+        <v>1</v>
+      </c>
+      <c r="BZ5">
+        <v>1</v>
+      </c>
+      <c r="CA5">
+        <v>1</v>
+      </c>
+      <c r="CB5">
+        <v>1</v>
+      </c>
+      <c r="CC5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:81">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1802,103 +3419,238 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.001975475558959495</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02861888714254554</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03361242710675541</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.07889543373086794</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.08494781505863704</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1291935574084885</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1357746431880825</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1359765050155968</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1404936755344769</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.14609896880377</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2466287496379475</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3115821929089965</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.3140468648008993</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.3903738535647383</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.4842236447518081</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.5404100268351979</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.5556944532506648</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.5571374764919664</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.584449233283554</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.6238801441036566</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.7032379027104436</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.8001659282807747</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.8371685513736431</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.8371685513736431</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.8517146442912515</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.8792293010177737</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.9245158059460775</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.9562728790545908</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.9712419191695213</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.988567139753885</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.9996779585952627</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0.03461986062949832</v>
+      </c>
+      <c r="AU6">
+        <v>0.05562693402938028</v>
+      </c>
+      <c r="AV6">
+        <v>0.2773886320903319</v>
+      </c>
+      <c r="AW6">
+        <v>0.3338941460159138</v>
+      </c>
+      <c r="AX6">
+        <v>0.3374662848230778</v>
+      </c>
+      <c r="AY6">
+        <v>0.3388079656547291</v>
+      </c>
+      <c r="AZ6">
+        <v>0.3589935952449068</v>
+      </c>
+      <c r="BA6">
+        <v>0.6356689154718822</v>
+      </c>
+      <c r="BB6">
+        <v>0.6598216031428257</v>
+      </c>
+      <c r="BC6">
+        <v>0.6788847333142408</v>
+      </c>
+      <c r="BD6">
+        <v>0.6926498026304165</v>
+      </c>
+      <c r="BE6">
+        <v>0.7056302378431749</v>
+      </c>
+      <c r="BF6">
+        <v>0.7056302378431749</v>
+      </c>
+      <c r="BG6">
+        <v>0.7486007724919795</v>
+      </c>
+      <c r="BH6">
+        <v>0.7522890343575112</v>
+      </c>
+      <c r="BI6">
+        <v>0.780938000802897</v>
+      </c>
+      <c r="BJ6">
+        <v>0.8303967234838994</v>
+      </c>
+      <c r="BK6">
+        <v>0.8331631266480227</v>
+      </c>
+      <c r="BL6">
+        <v>0.8398208288685726</v>
+      </c>
+      <c r="BM6">
+        <v>0.8583037221654245</v>
+      </c>
+      <c r="BN6">
+        <v>0.8896599861733826</v>
+      </c>
+      <c r="BO6">
+        <v>0.910302543358713</v>
+      </c>
+      <c r="BP6">
+        <v>0.9456285685501856</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9537079773428101</v>
+      </c>
+      <c r="BR6">
+        <v>0.9746518946960904</v>
+      </c>
+      <c r="BS6">
+        <v>0.9904499217060538</v>
+      </c>
+      <c r="BT6">
+        <v>0.9916291504255758</v>
+      </c>
+      <c r="BU6">
+        <v>0.9916959504451744</v>
+      </c>
+      <c r="BV6">
+        <v>0.9997753592377989</v>
+      </c>
+      <c r="BW6">
+        <v>0.9997919874688901</v>
+      </c>
+      <c r="BX6">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="BY6">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="BZ6">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CA6">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CB6">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CC6">
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1916,302 +3668,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>0.0146616535559749</v>
+        <v>0.1717436804407188</v>
       </c>
       <c r="F2">
-        <v>0.5376323441828111</v>
+        <v>0.5071772100772515</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L2">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E3">
-        <v>0.01998393974516445</v>
+        <v>0.09922389837504832</v>
       </c>
       <c r="F3">
-        <v>0.5003254334279978</v>
+        <v>0.5656854952854556</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L3">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P3" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E4">
-        <v>0.01856188353390947</v>
+        <v>0.101777147734933</v>
       </c>
       <c r="F4">
-        <v>0.525660002501969</v>
+        <v>0.5232687211136607</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L4">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E5">
-        <v>0.02718526243207472</v>
+        <v>0.08042091550800813</v>
       </c>
       <c r="F5">
-        <v>0.5259201369194819</v>
+        <v>0.5817042329604787</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L5">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P5" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E6">
-        <v>0.02861888714254554</v>
+        <v>0.2773886320903319</v>
       </c>
       <c r="F6">
-        <v>0.5404100268351979</v>
+        <v>0.6356689154718822</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L6">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2229,302 +3966,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>0.0146616535559749</v>
+        <v>0.1717436804407188</v>
       </c>
       <c r="F2">
-        <v>0.7417823749746141</v>
+        <v>0.7138358542318101</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L2">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="E3">
-        <v>0.01998393974516445</v>
+        <v>0.09922389837504832</v>
       </c>
       <c r="F3">
-        <v>0.739210985108095</v>
+        <v>0.7029155329502151</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L3">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P3" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E4">
-        <v>0.01856188353390947</v>
+        <v>0.101777147734933</v>
       </c>
       <c r="F4">
-        <v>0.7074936565098728</v>
+        <v>0.7409482690225723</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L4">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E5">
-        <v>0.02718526243207472</v>
+        <v>0.08042091550800813</v>
       </c>
       <c r="F5">
-        <v>0.7043888242134314</v>
+        <v>0.7296032859846204</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L5">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P5" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E6">
-        <v>0.02861888714254554</v>
+        <v>0.2773886320903319</v>
       </c>
       <c r="F6">
-        <v>0.7032379027104436</v>
+        <v>0.7056302378431749</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L6">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2542,302 +4264,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>0.0146616535559749</v>
+        <v>0.1717436804407188</v>
       </c>
       <c r="F2">
-        <v>0.8275283153205928</v>
+        <v>0.8700081885226362</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L2">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E3">
-        <v>0.01998393974516445</v>
+        <v>0.09922389837504832</v>
       </c>
       <c r="F3">
-        <v>0.8301771417979473</v>
+        <v>0.8171292119721806</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L3">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P3" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>0.01856188353390947</v>
+        <v>0.101777147734933</v>
       </c>
       <c r="F4">
-        <v>0.817609163599582</v>
+        <v>0.8341706065676422</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L4">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="E5">
-        <v>0.02718526243207472</v>
+        <v>0.08042091550800813</v>
       </c>
       <c r="F5">
-        <v>0.8015039857120131</v>
+        <v>0.813313178001122</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L5">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P5" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E6">
-        <v>0.02861888714254554</v>
+        <v>0.2773886320903319</v>
       </c>
       <c r="F6">
-        <v>0.8001659282807747</v>
+        <v>0.8303967234838994</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L6">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2855,302 +4562,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>0.0146616535559749</v>
+        <v>0.1717436804407188</v>
       </c>
       <c r="F2">
-        <v>0.907406687529525</v>
+        <v>0.9118543962073213</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>900</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L2">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M2">
         <v>900</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>0.01998393974516445</v>
+        <v>0.09922389837504832</v>
       </c>
       <c r="F3">
-        <v>0.936644463053468</v>
+        <v>0.9140497491672283</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>900</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L3">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M3">
         <v>900</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P3" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E4">
-        <v>0.01856188353390947</v>
+        <v>0.101777147734933</v>
       </c>
       <c r="F4">
-        <v>0.9213256478617933</v>
+        <v>0.9025021830636932</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L4">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M4">
         <v>900</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E5">
-        <v>0.02718526243207472</v>
+        <v>0.08042091550800813</v>
       </c>
       <c r="F5">
-        <v>0.9219592679030424</v>
+        <v>0.9154197313140057</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>900</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L5">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M5">
         <v>900</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P5" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E6">
-        <v>0.02861888714254554</v>
+        <v>0.2773886320903319</v>
       </c>
       <c r="F6">
-        <v>0.9245158059460775</v>
+        <v>0.910302543358713</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L6">
-        <v>320</v>
+        <v>109</v>
       </c>
       <c r="M6">
         <v>900</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P6" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
